--- a/person_names.xlsx
+++ b/person_names.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="820" windowWidth="33600" windowHeight="18440" tabRatio="600" firstSheet="0" activeTab="1" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="820" windowWidth="33600" windowHeight="18440" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet_man" sheetId="1" state="visible" r:id="rId1"/>
@@ -444,16 +444,16 @@
     <outlinePr summaryBelow="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C132"/>
+  <dimension ref="A1:C131"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" customHeight="1"/>
   <cols>
-    <col width="8.83203125" customWidth="1" style="2" min="1" max="9"/>
-    <col width="8.83203125" customWidth="1" style="2" min="10" max="16384"/>
+    <col width="8.83203125" customWidth="1" style="2" min="1" max="10"/>
+    <col width="8.83203125" customWidth="1" style="2" min="11" max="16384"/>
   </cols>
   <sheetData>
     <row r="1" ht="14" customHeight="1">
@@ -489,12 +489,12 @@
     <row r="3" ht="14" customHeight="1">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>蔡健雅</t>
-        </is>
-      </c>
-      <c r="B3" s="1" t="inlineStr">
-        <is>
-          <t>CaiJianya</t>
+          <t>蔡徐坤</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>CaiXukun</t>
         </is>
       </c>
       <c r="C3" t="n">
@@ -504,12 +504,12 @@
     <row r="4" ht="14" customHeight="1">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>蔡徐坤</t>
+          <t>陈浩民</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>CaiXukun</t>
+          <t>ChenHaomin</t>
         </is>
       </c>
       <c r="C4" t="n">
@@ -519,12 +519,12 @@
     <row r="5" ht="14" customHeight="1">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>陈浩民</t>
+          <t>陈赫</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>ChenHaomin</t>
+          <t>ChenHe</t>
         </is>
       </c>
       <c r="C5" t="n">
@@ -534,12 +534,12 @@
     <row r="6" ht="14" customHeight="1">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>陈赫</t>
+          <t>陈粒</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>ChenHe</t>
+          <t>ChenLi</t>
         </is>
       </c>
       <c r="C6" t="n">
@@ -549,12 +549,12 @@
     <row r="7" ht="14" customHeight="1">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>陈粒</t>
+          <t>陈立农</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>ChenLi</t>
+          <t>ChenLinong</t>
         </is>
       </c>
       <c r="C7" t="n">
@@ -564,12 +564,12 @@
     <row r="8" ht="14" customHeight="1">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>陈立农</t>
+          <t>陈翔</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>ChenLinong</t>
+          <t>ChenXiang</t>
         </is>
       </c>
       <c r="C8" t="n">
@@ -579,12 +579,12 @@
     <row r="9" ht="14" customHeight="1">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>陈翔</t>
+          <t>陈小春</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>ChenXiang</t>
+          <t>ChenXiaochun</t>
         </is>
       </c>
       <c r="C9" t="n">
@@ -594,12 +594,12 @@
     <row r="10" ht="14" customHeight="1">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>陈小春</t>
+          <t>陈学冬</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>ChenXiaochun</t>
+          <t>ChenXuedong</t>
         </is>
       </c>
       <c r="C10" t="n">
@@ -609,12 +609,12 @@
     <row r="11" ht="14" customHeight="1">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>陈学冬</t>
+          <t>陈奕迅</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>ChenXuedong</t>
+          <t>ChenYixun</t>
         </is>
       </c>
       <c r="C11" t="n">
@@ -624,12 +624,12 @@
     <row r="12" ht="14" customHeight="1">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>陈奕迅</t>
+          <t>成龙</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>ChenYixun</t>
+          <t>ChengLong</t>
         </is>
       </c>
       <c r="C12" t="n">
@@ -639,12 +639,12 @@
     <row r="13" ht="14" customHeight="1">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>成龙</t>
+          <t>崔健</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>ChengLong</t>
+          <t>CuiJian</t>
         </is>
       </c>
       <c r="C13" t="n">
@@ -654,12 +654,12 @@
     <row r="14" ht="14" customHeight="1">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>崔健</t>
+          <t>大张伟</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>CuiJian</t>
+          <t>DaZhangwei</t>
         </is>
       </c>
       <c r="C14" t="n">
@@ -669,12 +669,12 @@
     <row r="15" ht="14" customHeight="1">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>大张伟</t>
+          <t>刀郎</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>DaZhangwei</t>
+          <t>DaoLang</t>
         </is>
       </c>
       <c r="C15" t="n">
@@ -684,12 +684,12 @@
     <row r="16" ht="14" customHeight="1">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>刀郎</t>
+          <t>邓超</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>DaoLang</t>
+          <t>DengChao</t>
         </is>
       </c>
       <c r="C16" t="n">
@@ -699,12 +699,12 @@
     <row r="17" ht="14" customHeight="1">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>邓超</t>
+          <t>邓伦</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>DengChao</t>
+          <t>DengLun</t>
         </is>
       </c>
       <c r="C17" t="n">
@@ -714,12 +714,12 @@
     <row r="18" ht="14" customHeight="1">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>邓伦</t>
+          <t>狄龙</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>DengLun</t>
+          <t>DiLong</t>
         </is>
       </c>
       <c r="C18" t="n">
@@ -729,12 +729,12 @@
     <row r="19" ht="14" customHeight="1">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>狄龙</t>
+          <t>杜海涛</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>DiLong</t>
+          <t>DuHaitao</t>
         </is>
       </c>
       <c r="C19" t="n">
@@ -744,12 +744,12 @@
     <row r="20" ht="14" customHeight="1">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>杜海涛</t>
+          <t>冯绍峰</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>DuHaitao</t>
+          <t>FengShaofeng</t>
         </is>
       </c>
       <c r="C20" t="n">
@@ -759,12 +759,12 @@
     <row r="21" ht="14" customHeight="1">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>冯绍峰</t>
+          <t>官鸿</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>FengShaofeng</t>
+          <t>GuanHong</t>
         </is>
       </c>
       <c r="C21" t="n">
@@ -774,12 +774,12 @@
     <row r="22" ht="14" customHeight="1">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>官鸿</t>
+          <t>韩庚</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>GuanHong</t>
+          <t>HanGeng</t>
         </is>
       </c>
       <c r="C22" t="n">
@@ -789,12 +789,12 @@
     <row r="23" ht="14" customHeight="1">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>韩庚</t>
+          <t>何炅</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>HanGeng</t>
+          <t>HeJiong</t>
         </is>
       </c>
       <c r="C23" t="n">
@@ -804,12 +804,12 @@
     <row r="24" ht="14" customHeight="1">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>何炅</t>
+          <t>胡歌</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>HeJiong</t>
+          <t>HuGe</t>
         </is>
       </c>
       <c r="C24" t="n">
@@ -819,12 +819,12 @@
     <row r="25" ht="14" customHeight="1">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>胡歌</t>
+          <t>胡夏</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>HuGe</t>
+          <t>HuXia</t>
         </is>
       </c>
       <c r="C25" t="n">
@@ -834,12 +834,12 @@
     <row r="26" ht="14" customHeight="1">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>胡夏</t>
+          <t>胡彦斌</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>HuXia</t>
+          <t>HuYanbin</t>
         </is>
       </c>
       <c r="C26" t="n">
@@ -849,12 +849,12 @@
     <row r="27" ht="14" customHeight="1">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>胡彦斌</t>
+          <t>胡一天</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>HuYanbin</t>
+          <t>HuYitian</t>
         </is>
       </c>
       <c r="C27" t="n">
@@ -864,12 +864,12 @@
     <row r="28" ht="14" customHeight="1">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>胡一天</t>
+          <t>华晨宇</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>HuYitian</t>
+          <t>HuaChenyu</t>
         </is>
       </c>
       <c r="C28" t="n">
@@ -879,12 +879,12 @@
     <row r="29" ht="14" customHeight="1">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>华晨宇</t>
+          <t>黄渤</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>HuaChenyu</t>
+          <t>HuangBo</t>
         </is>
       </c>
       <c r="C29" t="n">
@@ -894,12 +894,12 @@
     <row r="30" ht="14" customHeight="1">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>黄渤</t>
+          <t>黄晓明</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>HuangBo</t>
+          <t>HuangXiaoming</t>
         </is>
       </c>
       <c r="C30" t="n">
@@ -909,12 +909,12 @@
     <row r="31" ht="14" customHeight="1">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>黄晓明</t>
+          <t>黄子韬</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>HuangXiaoming</t>
+          <t>HuangZitao</t>
         </is>
       </c>
       <c r="C31" t="n">
@@ -924,12 +924,12 @@
     <row r="32" ht="14" customHeight="1">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>黄子韬</t>
+          <t>霍建华</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>HuangZitao</t>
+          <t>HuoJianhua</t>
         </is>
       </c>
       <c r="C32" t="n">
@@ -939,12 +939,12 @@
     <row r="33" ht="14" customHeight="1">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>霍建华</t>
+          <t>纪凌尘</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>HuoJianhua</t>
+          <t>JiLingchen</t>
         </is>
       </c>
       <c r="C33" t="n">
@@ -954,12 +954,12 @@
     <row r="34" ht="14" customHeight="1">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>纪凌尘</t>
+          <t>贾乃亮</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>JiLingchen</t>
+          <t>JiaNailiang</t>
         </is>
       </c>
       <c r="C34" t="n">
@@ -969,12 +969,12 @@
     <row r="35" ht="14" customHeight="1">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>贾乃亮</t>
+          <t>金志文</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>JiaNailiang</t>
+          <t>JinZhiwen</t>
         </is>
       </c>
       <c r="C35" t="n">
@@ -984,12 +984,12 @@
     <row r="36" ht="14" customHeight="1">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>金志文</t>
+          <t>井柏然</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>JinZhiwen</t>
+          <t>JingBairan</t>
         </is>
       </c>
       <c r="C36" t="n">
@@ -999,12 +999,12 @@
     <row r="37" ht="14" customHeight="1">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>井柏然</t>
+          <t>老狼</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>JingBairan</t>
+          <t>LaoLang</t>
         </is>
       </c>
       <c r="C37" t="n">
@@ -1014,12 +1014,12 @@
     <row r="38" ht="14" customHeight="1">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>老狼</t>
+          <t>李晨</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>LaoLang</t>
+          <t>LiChen</t>
         </is>
       </c>
       <c r="C38" t="n">
@@ -1029,12 +1029,12 @@
     <row r="39" ht="14" customHeight="1">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>李晨</t>
+          <t>李健</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>LiChen</t>
+          <t>LiJian</t>
         </is>
       </c>
       <c r="C39" t="n">
@@ -1044,12 +1044,12 @@
     <row r="40" ht="14" customHeight="1">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>李健</t>
+          <t>李克勤</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>LiJian</t>
+          <t>LiKeqin</t>
         </is>
       </c>
       <c r="C40" t="n">
@@ -1059,12 +1059,12 @@
     <row r="41" ht="14" customHeight="1">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>李克勤</t>
+          <t>李荣浩</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>LiKeqin</t>
+          <t>LiRonghao</t>
         </is>
       </c>
       <c r="C41" t="n">
@@ -1074,12 +1074,12 @@
     <row r="42" ht="14" customHeight="1">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>李荣浩</t>
+          <t>李维嘉</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>LiRonghao</t>
+          <t>LiWeijia</t>
         </is>
       </c>
       <c r="C42" t="n">
@@ -1089,12 +1089,12 @@
     <row r="43" ht="14" customHeight="1">
       <c r="A43" s="1" t="inlineStr">
         <is>
-          <t>李维嘉</t>
+          <t>李现</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>LiWeijia</t>
+          <t>LiXian</t>
         </is>
       </c>
       <c r="C43" t="n">
@@ -1104,12 +1104,12 @@
     <row r="44" ht="14" customHeight="1">
       <c r="A44" s="1" t="inlineStr">
         <is>
-          <t>李现</t>
+          <t>李易峰</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>LiXian</t>
+          <t>LiYifeng</t>
         </is>
       </c>
       <c r="C44" t="n">
@@ -1119,12 +1119,12 @@
     <row r="45" ht="14" customHeight="1">
       <c r="A45" s="1" t="inlineStr">
         <is>
-          <t>李易峰</t>
+          <t>李玉刚</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>LiYifeng</t>
+          <t>LiYugang</t>
         </is>
       </c>
       <c r="C45" t="n">
@@ -1134,12 +1134,12 @@
     <row r="46" ht="14" customHeight="1">
       <c r="A46" s="1" t="inlineStr">
         <is>
-          <t>李玉刚</t>
+          <t>李宗盛</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>LiYugang</t>
+          <t>LiZongsheng</t>
         </is>
       </c>
       <c r="C46" t="n">
@@ -1149,12 +1149,12 @@
     <row r="47" ht="14" customHeight="1">
       <c r="A47" s="1" t="inlineStr">
         <is>
-          <t>李宗盛</t>
+          <t>梁靖康</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>LiZongsheng</t>
+          <t>LiangJingkang</t>
         </is>
       </c>
       <c r="C47" t="n">
@@ -1164,12 +1164,12 @@
     <row r="48" ht="14" customHeight="1">
       <c r="A48" s="1" t="inlineStr">
         <is>
-          <t>梁靖康</t>
+          <t>梁小龙</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>LiangJingkang</t>
+          <t>LiangXiaolong</t>
         </is>
       </c>
       <c r="C48" t="n">
@@ -1179,12 +1179,12 @@
     <row r="49" ht="14" customHeight="1">
       <c r="A49" s="1" t="inlineStr">
         <is>
-          <t>梁小龙</t>
+          <t>林更新</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>LiangXiaolong</t>
+          <t>LinGengxin</t>
         </is>
       </c>
       <c r="C49" t="n">
@@ -1194,12 +1194,12 @@
     <row r="50" ht="14" customHeight="1">
       <c r="A50" s="1" t="inlineStr">
         <is>
-          <t>林更新</t>
+          <t>林俊杰</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>LinGengxin</t>
+          <t>LinJunjie</t>
         </is>
       </c>
       <c r="C50" t="n">
@@ -1209,12 +1209,12 @@
     <row r="51" ht="14" customHeight="1">
       <c r="A51" s="1" t="inlineStr">
         <is>
-          <t>林俊杰</t>
+          <t>林宥嘉</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>LinJunjie</t>
+          <t>LinYoujia</t>
         </is>
       </c>
       <c r="C51" t="n">
@@ -1224,12 +1224,12 @@
     <row r="52" ht="14" customHeight="1">
       <c r="A52" s="1" t="inlineStr">
         <is>
-          <t>林宥嘉</t>
+          <t>林志颖</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>LinYoujia</t>
+          <t>LinZhiying</t>
         </is>
       </c>
       <c r="C52" t="n">
@@ -1239,12 +1239,12 @@
     <row r="53" ht="14" customHeight="1">
       <c r="A53" s="1" t="inlineStr">
         <is>
-          <t>林志颖</t>
+          <t>刘德华</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>LinZhiying</t>
+          <t>LiuDehua</t>
         </is>
       </c>
       <c r="C53" t="n">
@@ -1254,12 +1254,12 @@
     <row r="54" ht="14" customHeight="1">
       <c r="A54" s="1" t="inlineStr">
         <is>
-          <t>刘德华</t>
+          <t>刘宪华</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>LiuDehua</t>
+          <t>LiuXianhua</t>
         </is>
       </c>
       <c r="C54" t="n">
@@ -1269,12 +1269,12 @@
     <row r="55" ht="14" customHeight="1">
       <c r="A55" s="1" t="inlineStr">
         <is>
-          <t>刘宪华</t>
+          <t>鹿晗</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>LiuXianhua</t>
+          <t>LuHan</t>
         </is>
       </c>
       <c r="C55" t="n">
@@ -1284,12 +1284,12 @@
     <row r="56" ht="14" customHeight="1">
       <c r="A56" s="1" t="inlineStr">
         <is>
-          <t>鹿晗</t>
+          <t>罗大佑</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>LuHan</t>
+          <t>LuoDayou</t>
         </is>
       </c>
       <c r="C56" t="n">
@@ -1299,12 +1299,12 @@
     <row r="57" ht="14" customHeight="1">
       <c r="A57" s="1" t="inlineStr">
         <is>
-          <t>罗大佑</t>
+          <t>罗晋</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>LuoDayou</t>
+          <t>LuoJin</t>
         </is>
       </c>
       <c r="C57" t="n">
@@ -1314,12 +1314,12 @@
     <row r="58" ht="14" customHeight="1">
       <c r="A58" s="1" t="inlineStr">
         <is>
-          <t>罗晋</t>
+          <t>罗志祥</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>LuoJin</t>
+          <t>LuoZhixiang</t>
         </is>
       </c>
       <c r="C58" t="n">
@@ -1329,12 +1329,12 @@
     <row r="59" ht="14" customHeight="1">
       <c r="A59" s="1" t="inlineStr">
         <is>
-          <t>罗志祥</t>
+          <t>马天宇</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>LuoZhixiang</t>
+          <t>MaTianyu</t>
         </is>
       </c>
       <c r="C59" t="n">
@@ -1344,12 +1344,12 @@
     <row r="60" ht="14" customHeight="1">
       <c r="A60" s="1" t="inlineStr">
         <is>
-          <t>马天宇</t>
+          <t>潘玮柏</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>MaTianyu</t>
+          <t>PanWeibai</t>
         </is>
       </c>
       <c r="C60" t="n">
@@ -1359,12 +1359,12 @@
     <row r="61" ht="14" customHeight="1">
       <c r="A61" s="1" t="inlineStr">
         <is>
-          <t>潘玮柏</t>
+          <t>朴树</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>PanWeibai</t>
+          <t>PuShu</t>
         </is>
       </c>
       <c r="C61" t="n">
@@ -1374,12 +1374,12 @@
     <row r="62" ht="14" customHeight="1">
       <c r="A62" s="1" t="inlineStr">
         <is>
-          <t>朴树</t>
+          <t>钱枫</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>PuShu</t>
+          <t>QianFeng</t>
         </is>
       </c>
       <c r="C62" t="n">
@@ -1389,12 +1389,12 @@
     <row r="63" ht="14" customHeight="1">
       <c r="A63" s="1" t="inlineStr">
         <is>
-          <t>钱枫</t>
+          <t>权志龙</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>QianFeng</t>
+          <t>QuanZhilong</t>
         </is>
       </c>
       <c r="C63" t="n">
@@ -1404,12 +1404,12 @@
     <row r="64" ht="14" customHeight="1">
       <c r="A64" s="1" t="inlineStr">
         <is>
-          <t>权志龙</t>
+          <t>任嘉伦</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>QuanZhilong</t>
+          <t>RenJialun</t>
         </is>
       </c>
       <c r="C64" t="n">
@@ -1419,12 +1419,12 @@
     <row r="65" ht="14" customHeight="1">
       <c r="A65" s="1" t="inlineStr">
         <is>
-          <t>任嘉伦</t>
+          <t>任贤齐</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>RenJialun</t>
+          <t>RenXianqi</t>
         </is>
       </c>
       <c r="C65" t="n">
@@ -1434,12 +1434,12 @@
     <row r="66" ht="14" customHeight="1">
       <c r="A66" s="1" t="inlineStr">
         <is>
-          <t>任贤齐</t>
+          <t>阮经天</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>RenXianqi</t>
+          <t>RuanJingtian</t>
         </is>
       </c>
       <c r="C66" t="n">
@@ -1449,12 +1449,12 @@
     <row r="67" ht="14" customHeight="1">
       <c r="A67" s="1" t="inlineStr">
         <is>
-          <t>阮经天</t>
+          <t>沈腾</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>RuanJingtian</t>
+          <t>ShenTeng</t>
         </is>
       </c>
       <c r="C67" t="n">
@@ -1464,12 +1464,12 @@
     <row r="68" ht="14" customHeight="1">
       <c r="A68" s="1" t="inlineStr">
         <is>
-          <t>沈腾</t>
+          <t>盛一伦</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>ShenTeng</t>
+          <t>ShengYilun</t>
         </is>
       </c>
       <c r="C68" t="n">
@@ -1479,12 +1479,12 @@
     <row r="69" ht="14" customHeight="1">
       <c r="A69" s="1" t="inlineStr">
         <is>
-          <t>盛一伦</t>
+          <t>宋冬野</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>ShengYilun</t>
+          <t>SongDongye</t>
         </is>
       </c>
       <c r="C69" t="n">
@@ -1494,12 +1494,12 @@
     <row r="70" ht="14" customHeight="1">
       <c r="A70" s="1" t="inlineStr">
         <is>
-          <t>宋冬野</t>
+          <t>宋小宝</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>SongDongye</t>
+          <t>SongXiaobao</t>
         </is>
       </c>
       <c r="C70" t="n">
@@ -1509,12 +1509,12 @@
     <row r="71" ht="14" customHeight="1">
       <c r="A71" s="1" t="inlineStr">
         <is>
-          <t>宋小宝</t>
+          <t>苏有朋</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>SongXiaobao</t>
+          <t>SuYoupeng</t>
         </is>
       </c>
       <c r="C71" t="n">
@@ -1524,12 +1524,12 @@
     <row r="72" ht="14" customHeight="1">
       <c r="A72" s="1" t="inlineStr">
         <is>
-          <t>苏有朋</t>
+          <t>孙红雷</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>SuYoupeng</t>
+          <t>SunHonglei</t>
         </is>
       </c>
       <c r="C72" t="n">
@@ -1539,12 +1539,12 @@
     <row r="73" ht="14" customHeight="1">
       <c r="A73" s="1" t="inlineStr">
         <is>
-          <t>孙红雷</t>
+          <t>谭咏麟</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>SunHonglei</t>
+          <t>TanYonglin</t>
         </is>
       </c>
       <c r="C73" t="n">
@@ -1554,12 +1554,12 @@
     <row r="74" ht="14" customHeight="1">
       <c r="A74" s="1" t="inlineStr">
         <is>
-          <t>谭咏麟</t>
+          <t>唐国强</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>TanYonglin</t>
+          <t>TangGuoqiang</t>
         </is>
       </c>
       <c r="C74" t="n">
@@ -1569,12 +1569,12 @@
     <row r="75" ht="14" customHeight="1">
       <c r="A75" s="1" t="inlineStr">
         <is>
-          <t>唐国强</t>
+          <t>陶喆</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>TangGuoqiang</t>
+          <t>TaoZhe</t>
         </is>
       </c>
       <c r="C75" t="n">
@@ -1584,12 +1584,12 @@
     <row r="76" ht="14" customHeight="1">
       <c r="A76" s="1" t="inlineStr">
         <is>
-          <t>陶喆</t>
+          <t>仝卓</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>TaoZhe</t>
+          <t>TongZhuo</t>
         </is>
       </c>
       <c r="C76" t="n">
@@ -1599,12 +1599,12 @@
     <row r="77" ht="14" customHeight="1">
       <c r="A77" s="1" t="inlineStr">
         <is>
-          <t>仝卓</t>
+          <t>王宝强</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>TongZhuo</t>
+          <t>WangBaoqiang</t>
         </is>
       </c>
       <c r="C77" t="n">
@@ -1614,12 +1614,12 @@
     <row r="78" ht="14" customHeight="1">
       <c r="A78" s="1" t="inlineStr">
         <is>
-          <t>王宝强</t>
+          <t>王传君</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>WangBaoqiang</t>
+          <t>WangChuanjun</t>
         </is>
       </c>
       <c r="C78" t="n">
@@ -1629,12 +1629,12 @@
     <row r="79" ht="14" customHeight="1">
       <c r="A79" s="1" t="inlineStr">
         <is>
-          <t>王传君</t>
+          <t>汪峰</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>WangChuanjun</t>
+          <t>WangFeng</t>
         </is>
       </c>
       <c r="C79" t="n">
@@ -1644,12 +1644,12 @@
     <row r="80" ht="14" customHeight="1">
       <c r="A80" s="1" t="inlineStr">
         <is>
-          <t>汪峰</t>
+          <t>汪涵</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>WangFeng</t>
+          <t>WangHan</t>
         </is>
       </c>
       <c r="C80" t="n">
@@ -1659,12 +1659,12 @@
     <row r="81" ht="14" customHeight="1">
       <c r="A81" s="1" t="inlineStr">
         <is>
-          <t>汪涵</t>
+          <t>王鹤棣</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>WangHan</t>
+          <t>WangHedi</t>
         </is>
       </c>
       <c r="C81" t="n">
@@ -1674,12 +1674,12 @@
     <row r="82" ht="14" customHeight="1">
       <c r="A82" s="1" t="inlineStr">
         <is>
-          <t>王鹤棣</t>
+          <t>王嘉尔</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>WangHedi</t>
+          <t>WangJiaer</t>
         </is>
       </c>
       <c r="C82" t="n">
@@ -1689,12 +1689,12 @@
     <row r="83" ht="14" customHeight="1">
       <c r="A83" s="1" t="inlineStr">
         <is>
-          <t>王嘉尔</t>
+          <t>王杰</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>WangJiaer</t>
+          <t>WangJie</t>
         </is>
       </c>
       <c r="C83" t="n">
@@ -1704,12 +1704,12 @@
     <row r="84" ht="14" customHeight="1">
       <c r="A84" s="1" t="inlineStr">
         <is>
-          <t>王杰</t>
+          <t>王俊凯</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>WangJie</t>
+          <t>WangJunkai</t>
         </is>
       </c>
       <c r="C84" t="n">
@@ -1719,12 +1719,12 @@
     <row r="85" ht="14" customHeight="1">
       <c r="A85" s="1" t="inlineStr">
         <is>
-          <t>王俊凯</t>
+          <t>王珂</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>WangJunkai</t>
+          <t>WangKe</t>
         </is>
       </c>
       <c r="C85" t="n">
@@ -1734,12 +1734,12 @@
     <row r="86" ht="14" customHeight="1">
       <c r="A86" s="1" t="inlineStr">
         <is>
-          <t>王珂</t>
+          <t>王力宏</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>WangKe</t>
+          <t>WangLihong</t>
         </is>
       </c>
       <c r="C86" t="n">
@@ -1749,12 +1749,12 @@
     <row r="87" ht="14" customHeight="1">
       <c r="A87" s="1" t="inlineStr">
         <is>
-          <t>王力宏</t>
+          <t>汪苏泷</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>WangLihong</t>
+          <t>WangSulong</t>
         </is>
       </c>
       <c r="C87" t="n">
@@ -1764,12 +1764,12 @@
     <row r="88" ht="14" customHeight="1">
       <c r="A88" s="1" t="inlineStr">
         <is>
-          <t>汪苏泷</t>
+          <t>王迅</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>WangSulong</t>
+          <t>WangXun</t>
         </is>
       </c>
       <c r="C88" t="n">
@@ -1779,12 +1779,12 @@
     <row r="89" ht="14" customHeight="1">
       <c r="A89" s="1" t="inlineStr">
         <is>
-          <t>王迅</t>
+          <t>王一博</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>WangXun</t>
+          <t>WangYibo</t>
         </is>
       </c>
       <c r="C89" t="n">
@@ -1794,12 +1794,12 @@
     <row r="90" ht="14" customHeight="1">
       <c r="A90" s="1" t="inlineStr">
         <is>
-          <t>王一博</t>
+          <t>王源</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>WangYibo</t>
+          <t>WangYuan</t>
         </is>
       </c>
       <c r="C90" t="n">
@@ -1809,12 +1809,12 @@
     <row r="91" ht="14" customHeight="1">
       <c r="A91" s="1" t="inlineStr">
         <is>
-          <t>王源</t>
+          <t>王铮亮</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>WangYuan</t>
+          <t>WangZhengliang</t>
         </is>
       </c>
       <c r="C91" t="n">
@@ -1824,12 +1824,12 @@
     <row r="92" ht="14" customHeight="1">
       <c r="A92" s="1" t="inlineStr">
         <is>
-          <t>王铮亮</t>
+          <t>王祖蓝</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>WangZhengliang</t>
+          <t>WangZulan</t>
         </is>
       </c>
       <c r="C92" t="n">
@@ -1839,12 +1839,12 @@
     <row r="93" ht="14" customHeight="1">
       <c r="A93" s="1" t="inlineStr">
         <is>
-          <t>王祖蓝</t>
+          <t>魏晨</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>WangZulan</t>
+          <t>WeiChen</t>
         </is>
       </c>
       <c r="C93" t="n">
@@ -1854,12 +1854,12 @@
     <row r="94" ht="14" customHeight="1">
       <c r="A94" s="1" t="inlineStr">
         <is>
-          <t>魏晨</t>
+          <t>魏大勋</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>WeiChen</t>
+          <t>WeiDaxun</t>
         </is>
       </c>
       <c r="C94" t="n">
@@ -1869,12 +1869,12 @@
     <row r="95" ht="14" customHeight="1">
       <c r="A95" s="1" t="inlineStr">
         <is>
-          <t>魏大勋</t>
+          <t>吴奇隆</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>WeiDaxun</t>
+          <t>WuQilong</t>
         </is>
       </c>
       <c r="C95" t="n">
@@ -1884,12 +1884,12 @@
     <row r="96" ht="14" customHeight="1">
       <c r="A96" s="1" t="inlineStr">
         <is>
-          <t>吴奇隆</t>
+          <t>吴希泽</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>WuQilong</t>
+          <t>WuXize</t>
         </is>
       </c>
       <c r="C96" t="n">
@@ -1899,12 +1899,12 @@
     <row r="97" ht="14" customHeight="1">
       <c r="A97" s="1" t="inlineStr">
         <is>
-          <t>吴希泽</t>
+          <t>武艺</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>WuXize</t>
+          <t>WuYi</t>
         </is>
       </c>
       <c r="C97" t="n">
@@ -1914,12 +1914,12 @@
     <row r="98" ht="14" customHeight="1">
       <c r="A98" s="1" t="inlineStr">
         <is>
-          <t>武艺</t>
+          <t>吴亦凡</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>WuYi</t>
+          <t>WuYifan</t>
         </is>
       </c>
       <c r="C98" t="n">
@@ -1929,12 +1929,12 @@
     <row r="99" ht="14" customHeight="1">
       <c r="A99" s="1" t="inlineStr">
         <is>
-          <t>吴亦凡</t>
+          <t>吴尊</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>WuYifan</t>
+          <t>WuZun</t>
         </is>
       </c>
       <c r="C99" t="n">
@@ -1944,12 +1944,12 @@
     <row r="100" ht="14" customHeight="1">
       <c r="A100" s="1" t="inlineStr">
         <is>
-          <t>吴尊</t>
+          <t>萧敬腾</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>WuZun</t>
+          <t>XiaoJingteng</t>
         </is>
       </c>
       <c r="C100" t="n">
@@ -1959,12 +1959,12 @@
     <row r="101" ht="14" customHeight="1">
       <c r="A101" s="1" t="inlineStr">
         <is>
-          <t>萧敬腾</t>
+          <t>肖战</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>XiaoJingteng</t>
+          <t>XiaoZhan</t>
         </is>
       </c>
       <c r="C101" t="n">
@@ -1974,12 +1974,12 @@
     <row r="102" ht="14" customHeight="1">
       <c r="A102" s="1" t="inlineStr">
         <is>
-          <t>肖战</t>
+          <t>许飞</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>XiaoZhan</t>
+          <t>XuFei</t>
         </is>
       </c>
       <c r="C102" t="n">
@@ -1989,12 +1989,12 @@
     <row r="103" ht="14" customHeight="1">
       <c r="A103" s="1" t="inlineStr">
         <is>
-          <t>许飞</t>
+          <t>徐海乔</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>XuFei</t>
+          <t>XuHaiqiao</t>
         </is>
       </c>
       <c r="C103" t="n">
@@ -2004,12 +2004,12 @@
     <row r="104" ht="14" customHeight="1">
       <c r="A104" s="1" t="inlineStr">
         <is>
-          <t>徐海乔</t>
+          <t>徐良</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>XuHaiqiao</t>
+          <t>XuLiang</t>
         </is>
       </c>
       <c r="C104" t="n">
@@ -2019,12 +2019,12 @@
     <row r="105" ht="14" customHeight="1">
       <c r="A105" s="1" t="inlineStr">
         <is>
-          <t>徐良</t>
+          <t>许嵩</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>XuLiang</t>
+          <t>XuSong</t>
         </is>
       </c>
       <c r="C105" t="n">
@@ -2034,12 +2034,12 @@
     <row r="106" ht="14" customHeight="1">
       <c r="A106" s="1" t="inlineStr">
         <is>
-          <t>许嵩</t>
+          <t>许巍</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>XuSong</t>
+          <t>XuWei</t>
         </is>
       </c>
       <c r="C106" t="n">
@@ -2049,12 +2049,12 @@
     <row r="107" ht="14" customHeight="1">
       <c r="A107" s="1" t="inlineStr">
         <is>
-          <t>许巍</t>
+          <t>薛之谦</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>XuWei</t>
+          <t>XueZhiqian</t>
         </is>
       </c>
       <c r="C107" t="n">
@@ -2064,12 +2064,12 @@
     <row r="108" ht="14" customHeight="1">
       <c r="A108" s="1" t="inlineStr">
         <is>
-          <t>薛之谦</t>
+          <t>杨洋</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>XueZhiqian</t>
+          <t>YangYang</t>
         </is>
       </c>
       <c r="C108" t="n">
@@ -2079,12 +2079,12 @@
     <row r="109" ht="14" customHeight="1">
       <c r="A109" s="1" t="inlineStr">
         <is>
-          <t>杨洋</t>
+          <t>杨祐宁</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>YangYang</t>
+          <t>YangYouning</t>
         </is>
       </c>
       <c r="C109" t="n">
@@ -2094,12 +2094,12 @@
     <row r="110" ht="14" customHeight="1">
       <c r="A110" s="1" t="inlineStr">
         <is>
-          <t>杨祐宁</t>
+          <t>杨宗纬</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>YangYouning</t>
+          <t>YangZongwei</t>
         </is>
       </c>
       <c r="C110" t="n">
@@ -2109,12 +2109,12 @@
     <row r="111" ht="14" customHeight="1">
       <c r="A111" s="1" t="inlineStr">
         <is>
-          <t>杨宗纬</t>
+          <t>易烊千玺</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>YangZongwei</t>
+          <t>YiYangqianxi</t>
         </is>
       </c>
       <c r="C111" t="n">
@@ -2124,12 +2124,12 @@
     <row r="112" ht="14" customHeight="1">
       <c r="A112" s="1" t="inlineStr">
         <is>
-          <t>易烊千玺</t>
+          <t>羽泉</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>YiYangqianxi</t>
+          <t>YuQuan</t>
         </is>
       </c>
       <c r="C112" t="n">
@@ -2139,12 +2139,12 @@
     <row r="113" ht="14" customHeight="1">
       <c r="A113" s="1" t="inlineStr">
         <is>
-          <t>羽泉</t>
+          <t>张大大</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>YuQuan</t>
+          <t>ZhangDada</t>
         </is>
       </c>
       <c r="C113" t="n">
@@ -2154,12 +2154,12 @@
     <row r="114" ht="14" customHeight="1">
       <c r="A114" s="1" t="inlineStr">
         <is>
-          <t>张大大</t>
+          <t>张丹峰</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>ZhangDada</t>
+          <t>ZhangDanfeng</t>
         </is>
       </c>
       <c r="C114" t="n">
@@ -2169,12 +2169,12 @@
     <row r="115" ht="14" customHeight="1">
       <c r="A115" s="1" t="inlineStr">
         <is>
-          <t>张丹峰</t>
+          <t>张杰</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>ZhangDanfeng</t>
+          <t>ZhangJie</t>
         </is>
       </c>
       <c r="C115" t="n">
@@ -2184,12 +2184,12 @@
     <row r="116" ht="14" customHeight="1">
       <c r="A116" s="1" t="inlineStr">
         <is>
-          <t>张杰</t>
+          <t>张铁林</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>ZhangJie</t>
+          <t>ZhangTielin</t>
         </is>
       </c>
       <c r="C116" t="n">
@@ -2199,12 +2199,12 @@
     <row r="117" ht="14" customHeight="1">
       <c r="A117" s="1" t="inlineStr">
         <is>
-          <t>张铁林</t>
+          <t>张信哲</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>ZhangTielin</t>
+          <t>ZhangXinzhe</t>
         </is>
       </c>
       <c r="C117" t="n">
@@ -2214,12 +2214,12 @@
     <row r="118" ht="14" customHeight="1">
       <c r="A118" s="1" t="inlineStr">
         <is>
-          <t>张信哲</t>
+          <t>张学友</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>ZhangXinzhe</t>
+          <t>ZhangXueyou</t>
         </is>
       </c>
       <c r="C118" t="n">
@@ -2229,12 +2229,12 @@
     <row r="119" ht="14" customHeight="1">
       <c r="A119" s="1" t="inlineStr">
         <is>
-          <t>张学友</t>
+          <t>张艺兴</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>ZhangXueyou</t>
+          <t>ZhangYixing</t>
         </is>
       </c>
       <c r="C119" t="n">
@@ -2244,12 +2244,12 @@
     <row r="120" ht="14" customHeight="1">
       <c r="A120" s="1" t="inlineStr">
         <is>
-          <t>张艺兴</t>
+          <t>张宇</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>ZhangYixing</t>
+          <t>ZhangYu</t>
         </is>
       </c>
       <c r="C120" t="n">
@@ -2259,12 +2259,12 @@
     <row r="121" ht="14" customHeight="1">
       <c r="A121" s="1" t="inlineStr">
         <is>
-          <t>张宇</t>
+          <t>张雨生</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>ZhangYu</t>
+          <t>ZhangYusheng</t>
         </is>
       </c>
       <c r="C121" t="n">
@@ -2274,12 +2274,12 @@
     <row r="122" ht="14" customHeight="1">
       <c r="A122" s="1" t="inlineStr">
         <is>
-          <t>张雨生</t>
+          <t>赵雷</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>ZhangYusheng</t>
+          <t>ZhaoLei</t>
         </is>
       </c>
       <c r="C122" t="n">
@@ -2289,12 +2289,12 @@
     <row r="123" ht="14" customHeight="1">
       <c r="A123" s="1" t="inlineStr">
         <is>
-          <t>赵雷</t>
+          <t>郑恺</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>ZhaoLei</t>
+          <t>ZhengKai</t>
         </is>
       </c>
       <c r="C123" t="n">
@@ -2304,12 +2304,12 @@
     <row r="124" ht="14" customHeight="1">
       <c r="A124" s="1" t="inlineStr">
         <is>
-          <t>郑恺</t>
+          <t>郑业成</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>ZhengKai</t>
+          <t>ZhengYecheng</t>
         </is>
       </c>
       <c r="C124" t="n">
@@ -2319,12 +2319,12 @@
     <row r="125" ht="14" customHeight="1">
       <c r="A125" s="1" t="inlineStr">
         <is>
-          <t>郑业成</t>
+          <t>郑元畅</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>ZhengYecheng</t>
+          <t>ZhengYuanchang</t>
         </is>
       </c>
       <c r="C125" t="n">
@@ -2334,12 +2334,12 @@
     <row r="126" ht="14" customHeight="1">
       <c r="A126" s="1" t="inlineStr">
         <is>
-          <t>郑元畅</t>
+          <t>钟汉良</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>ZhengYuanchang</t>
+          <t>ZhongHanliang</t>
         </is>
       </c>
       <c r="C126" t="n">
@@ -2349,12 +2349,12 @@
     <row r="127" ht="14" customHeight="1">
       <c r="A127" s="1" t="inlineStr">
         <is>
-          <t>钟汉良</t>
+          <t>周传雄</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>ZhongHanliang</t>
+          <t>ZhouChuanxiong</t>
         </is>
       </c>
       <c r="C127" t="n">
@@ -2364,12 +2364,12 @@
     <row r="128" ht="14" customHeight="1">
       <c r="A128" s="1" t="inlineStr">
         <is>
-          <t>周传雄</t>
+          <t>周华健</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>ZhouChuanxiong</t>
+          <t>ZhouHuajian</t>
         </is>
       </c>
       <c r="C128" t="n">
@@ -2379,12 +2379,12 @@
     <row r="129" ht="14" customHeight="1">
       <c r="A129" s="1" t="inlineStr">
         <is>
-          <t>周华健</t>
+          <t>周杰伦</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>ZhouHuajian</t>
+          <t>ZhouJielun</t>
         </is>
       </c>
       <c r="C129" t="n">
@@ -2392,47 +2392,32 @@
       </c>
     </row>
     <row r="130" ht="14" customHeight="1">
-      <c r="A130" s="1" t="inlineStr">
-        <is>
-          <t>周杰伦</t>
-        </is>
-      </c>
-      <c r="B130" t="inlineStr">
-        <is>
-          <t>ZhouJielun</t>
-        </is>
-      </c>
-      <c r="C130" t="n">
+      <c r="A130" s="2" t="inlineStr">
+        <is>
+          <t>周润发</t>
+        </is>
+      </c>
+      <c r="B130" s="3" t="inlineStr">
+        <is>
+          <t>ZhouRunfa</t>
+        </is>
+      </c>
+      <c r="C130" s="3" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="131" ht="14" customHeight="1">
       <c r="A131" s="2" t="inlineStr">
         <is>
-          <t>周润发</t>
+          <t>朱一龙</t>
         </is>
       </c>
       <c r="B131" s="3" t="inlineStr">
         <is>
-          <t>ZhouRunfa</t>
+          <t>ZhuYilong</t>
         </is>
       </c>
       <c r="C131" s="3" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="132" ht="14" customHeight="1">
-      <c r="A132" s="2" t="inlineStr">
-        <is>
-          <t>朱一龙</t>
-        </is>
-      </c>
-      <c r="B132" s="3" t="inlineStr">
-        <is>
-          <t>ZhuYilong</t>
-        </is>
-      </c>
-      <c r="C132" s="3" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2448,16 +2433,16 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C112"/>
+  <dimension ref="A1:C113"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G26" sqref="G26"/>
+    <sheetView topLeftCell="A102" workbookViewId="0">
+      <selection activeCell="C118" sqref="C118"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" customHeight="1"/>
   <cols>
-    <col width="8.83203125" customWidth="1" style="2" min="1" max="6"/>
-    <col width="8.83203125" customWidth="1" style="2" min="7" max="16384"/>
+    <col width="8.83203125" customWidth="1" style="2" min="1" max="7"/>
+    <col width="8.83203125" customWidth="1" style="2" min="8" max="16384"/>
   </cols>
   <sheetData>
     <row r="1" ht="14" customFormat="1" customHeight="1" s="1">
@@ -2466,7 +2451,14 @@
           <t>安悦溪</t>
         </is>
       </c>
-      <c r="C1" s="2" t="n"/>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>AnYuexi</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="2" ht="14" customHeight="1">
       <c r="A2" s="1" t="inlineStr">
@@ -2474,825 +2466,1679 @@
           <t>白百何</t>
         </is>
       </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>BaiBaihe</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="3" ht="14" customHeight="1">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>蔡依林</t>
-        </is>
+          <t>蔡健雅</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>CaiJianya</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="4" ht="14" customHeight="1">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>蔡卓妍</t>
-        </is>
+          <t>蔡依林</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>CaiYilin</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="5" ht="14" customHeight="1">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>陈乔恩</t>
-        </is>
+          <t>蔡卓妍</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>CaiZhuoyan</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="6" ht="14" customHeight="1">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>邓家佳</t>
-        </is>
+          <t>陈乔恩</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>ChenQiaoen</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="7" ht="14" customHeight="1">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>邓紫棋</t>
-        </is>
+          <t>邓家佳</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>DengJiajia</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="8" ht="14" customHeight="1">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>迪丽热巴</t>
-        </is>
+          <t>邓紫棋</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>DengZiqi</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="9" ht="14" customHeight="1">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>丁当</t>
-        </is>
+          <t>迪丽热巴</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>DiLireba</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="10" ht="14" customHeight="1">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>范冰冰</t>
-        </is>
+          <t>丁当</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>DingDang</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="11" ht="14" customHeight="1">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>范玮琪</t>
-        </is>
+          <t>范冰冰</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>FanBingbing</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="12" ht="14" customHeight="1">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>高露</t>
-        </is>
+          <t>范玮琪</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>FanWeiqi</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="13" ht="14" customHeight="1">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>高圆圆</t>
-        </is>
+          <t>高露</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>GaoLu</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="14" ht="14" customHeight="1">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>古力娜扎</t>
-        </is>
+          <t>高圆圆</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>GaoYuanyuan</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="15" ht="14" customHeight="1">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>关晓彤</t>
-        </is>
+          <t>古力娜扎</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>GuLinuozha</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="16" ht="14" customHeight="1">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>韩雪</t>
-        </is>
+          <t>关晓彤</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>GuanXiaotong</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="17" ht="14" customHeight="1">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>何洁</t>
-        </is>
+          <t>韩雪</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>HanXue</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="18" ht="14" customHeight="1">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>何穗</t>
-        </is>
+          <t>何洁</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>HeJi</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="19" ht="14" customHeight="1">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>黄圣依</t>
-        </is>
+          <t>何穗</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>HeSui</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="20" ht="14" customHeight="1">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>贾玲</t>
-        </is>
+          <t>黄圣依</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>HuangShengyi</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="21" ht="14" customHeight="1">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>江疏影</t>
-        </is>
+          <t>贾玲</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>JiaLing</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="22" ht="14" customHeight="1">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>蒋欣</t>
-        </is>
+          <t>江疏影</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>JiangShuying</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="23" ht="14" customHeight="1">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>江一燕</t>
-        </is>
+          <t>蒋欣</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>JiangXin</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="24" ht="14" customHeight="1">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>景甜</t>
-        </is>
+          <t>江一燕</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>JiangYiyan</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="25" ht="14" customHeight="1">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>阚清子</t>
-        </is>
+          <t>景甜</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>JingTian</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="26" ht="14" customHeight="1">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>昆凌</t>
-        </is>
+          <t>阚清子</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>KanQingzi</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="27" ht="14" customHeight="1">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>蓝盈盈</t>
-        </is>
+          <t>昆凌</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>KunLing</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="28" ht="14" customHeight="1">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>李冰冰</t>
-        </is>
+          <t>蓝盈盈</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>LanYingying</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="29" ht="14" customHeight="1">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>李沁</t>
-        </is>
+          <t>李冰冰</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>LiBingbing</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="30" ht="14" customHeight="1">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>李小璐</t>
-        </is>
+          <t>李沁</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>LiQin</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="31" ht="14" customHeight="1">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>李亚男</t>
-        </is>
+          <t>李小璐</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>LiXiaolu</t>
+        </is>
+      </c>
+      <c r="C31" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="32" ht="14" customHeight="1">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>李宇春</t>
-        </is>
+          <t>李亚男</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>LiYanan</t>
+        </is>
+      </c>
+      <c r="C32" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="33" ht="14" customHeight="1">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>梁静茹</t>
-        </is>
+          <t>李宇春</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>LiYuchun</t>
+        </is>
+      </c>
+      <c r="C33" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="34" ht="14" customHeight="1">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>梁咏琪</t>
-        </is>
+          <t>梁静茹</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>LiangJingru</t>
+        </is>
+      </c>
+      <c r="C34" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="35" ht="14" customHeight="1">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>林心如</t>
-        </is>
+          <t>梁咏琪</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>LiangYongqi</t>
+        </is>
+      </c>
+      <c r="C35" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="36" ht="14" customHeight="1">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>林依晨</t>
-        </is>
+          <t>林心如</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>LinXinru</t>
+        </is>
+      </c>
+      <c r="C36" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="37" ht="14" customHeight="1">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>林忆莲</t>
-        </is>
+          <t>林依晨</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>LinYichen</t>
+        </is>
+      </c>
+      <c r="C37" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="38" ht="14" customHeight="1">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>林依轮</t>
-        </is>
+          <t>林忆莲</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>LinYilian</t>
+        </is>
+      </c>
+      <c r="C38" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="39" ht="14" customHeight="1">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>林允</t>
-        </is>
+          <t>林依轮</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>LinYilun</t>
+        </is>
+      </c>
+      <c r="C39" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="40" ht="14" customHeight="1">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>林志玲</t>
-        </is>
+          <t>林允</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>LinYun</t>
+        </is>
+      </c>
+      <c r="C40" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="41" ht="14" customHeight="1">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>林志炫</t>
-        </is>
+          <t>林志玲</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>LinZhiling</t>
+        </is>
+      </c>
+      <c r="C41" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="42" ht="14" customHeight="1">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>刘嘉玲</t>
-        </is>
+          <t>林志炫</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>LinZhixuan</t>
+        </is>
+      </c>
+      <c r="C42" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="43" ht="14" customHeight="1">
       <c r="A43" s="1" t="inlineStr">
         <is>
-          <t>刘敏涛</t>
-        </is>
+          <t>刘嘉玲</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>LiuJialing</t>
+        </is>
+      </c>
+      <c r="C43" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="44" ht="14" customHeight="1">
       <c r="A44" s="1" t="inlineStr">
         <is>
-          <t>刘诗诗</t>
-        </is>
+          <t>刘敏涛</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>LiuMintao</t>
+        </is>
+      </c>
+      <c r="C44" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="45" ht="14" customHeight="1">
       <c r="A45" s="1" t="inlineStr">
         <is>
-          <t>刘涛</t>
-        </is>
+          <t>刘诗诗</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>LiuShishi</t>
+        </is>
+      </c>
+      <c r="C45" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="46" ht="14" customHeight="1">
       <c r="A46" s="1" t="inlineStr">
         <is>
-          <t>刘亦菲</t>
-        </is>
+          <t>刘涛</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>LiuTao</t>
+        </is>
+      </c>
+      <c r="C46" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="47" ht="14" customHeight="1">
       <c r="A47" s="1" t="inlineStr">
         <is>
-          <t>娄艺潇</t>
-        </is>
+          <t>刘亦菲</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>LiuYifei</t>
+        </is>
+      </c>
+      <c r="C47" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="48" ht="14" customHeight="1">
       <c r="A48" s="1" t="inlineStr">
         <is>
-          <t>马可</t>
-        </is>
+          <t>娄艺潇</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>LouYixiao</t>
+        </is>
+      </c>
+      <c r="C48" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="49" ht="14" customHeight="1">
       <c r="A49" s="1" t="inlineStr">
         <is>
-          <t>马思超</t>
-        </is>
+          <t>马可</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>MaKe</t>
+        </is>
+      </c>
+      <c r="C49" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="50" ht="14" customHeight="1">
       <c r="A50" s="1" t="inlineStr">
         <is>
-          <t>马思纯</t>
-        </is>
+          <t>马思超</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>MaSichao</t>
+        </is>
+      </c>
+      <c r="C50" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="51" ht="14" customHeight="1">
       <c r="A51" s="1" t="inlineStr">
         <is>
-          <t>马苏</t>
-        </is>
+          <t>马思纯</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>MaSichun</t>
+        </is>
+      </c>
+      <c r="C51" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="52" ht="14" customHeight="1">
       <c r="A52" s="1" t="inlineStr">
         <is>
-          <t>毛晓彤</t>
-        </is>
+          <t>马苏</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>MaSu</t>
+        </is>
+      </c>
+      <c r="C52" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="53" ht="14" customHeight="1">
       <c r="A53" s="1" t="inlineStr">
         <is>
-          <t>莫文蔚</t>
-        </is>
+          <t>毛晓彤</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>MaoXiaotong</t>
+        </is>
+      </c>
+      <c r="C53" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="54" ht="14" customHeight="1">
       <c r="A54" s="1" t="inlineStr">
         <is>
-          <t>那英</t>
-        </is>
+          <t>莫文蔚</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>MoWenwei</t>
+        </is>
+      </c>
+      <c r="C54" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="55" ht="14" customHeight="1">
       <c r="A55" s="1" t="inlineStr">
         <is>
-          <t>牛莉</t>
-        </is>
+          <t>那英</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>NaYing</t>
+        </is>
+      </c>
+      <c r="C55" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="56" ht="14" customHeight="1">
       <c r="A56" s="1" t="inlineStr">
         <is>
-          <t>欧阳娜娜</t>
-        </is>
+          <t>牛莉</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>NiuLi</t>
+        </is>
+      </c>
+      <c r="C56" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="57" ht="14" customHeight="1">
       <c r="A57" s="1" t="inlineStr">
         <is>
-          <t>秦岚</t>
-        </is>
+          <t>欧阳娜娜</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>OuYangnuonuo</t>
+        </is>
+      </c>
+      <c r="C57" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="58" ht="14" customHeight="1">
       <c r="A58" s="1" t="inlineStr">
         <is>
-          <t>曲婉婷</t>
-        </is>
+          <t>秦岚</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>QinLan</t>
+        </is>
+      </c>
+      <c r="C58" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="59" ht="14" customHeight="1">
       <c r="A59" s="1" t="inlineStr">
         <is>
-          <t>容祖儿</t>
-        </is>
+          <t>曲婉婷</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>QuWanting</t>
+        </is>
+      </c>
+      <c r="C59" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="60" ht="14" customHeight="1">
       <c r="A60" s="1" t="inlineStr">
         <is>
-          <t>沈月</t>
-        </is>
+          <t>容祖儿</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>RongZuer</t>
+        </is>
+      </c>
+      <c r="C60" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="61" ht="14" customHeight="1">
       <c r="A61" s="1" t="inlineStr">
         <is>
-          <t>舒淇</t>
-        </is>
+          <t>沈月</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>ShenYue</t>
+        </is>
+      </c>
+      <c r="C61" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="62" ht="14" customHeight="1">
       <c r="A62" s="1" t="inlineStr">
         <is>
-          <t>宋茜</t>
-        </is>
+          <t>舒淇</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>ShuQi</t>
+        </is>
+      </c>
+      <c r="C62" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="63" ht="14" customHeight="1">
       <c r="A63" s="1" t="inlineStr">
         <is>
-          <t>宋祖儿</t>
-        </is>
+          <t>宋茜</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>SongQian</t>
+        </is>
+      </c>
+      <c r="C63" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="64" ht="14" customHeight="1">
       <c r="A64" s="1" t="inlineStr">
         <is>
-          <t>孙俪</t>
-        </is>
+          <t>宋祖儿</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>SongZuer</t>
+        </is>
+      </c>
+      <c r="C64" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="65" ht="14" customHeight="1">
       <c r="A65" s="1" t="inlineStr">
         <is>
-          <t>孙燕姿</t>
-        </is>
+          <t>孙俪</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>SunLi</t>
+        </is>
+      </c>
+      <c r="C65" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="66" ht="14" customHeight="1">
       <c r="A66" s="1" t="inlineStr">
         <is>
-          <t>孙怡</t>
-        </is>
+          <t>孙燕姿</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>SunYanzi</t>
+        </is>
+      </c>
+      <c r="C66" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="67" ht="14" customHeight="1">
       <c r="A67" s="1" t="inlineStr">
         <is>
-          <t>孙子涵</t>
-        </is>
+          <t>孙怡</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>SunYi</t>
+        </is>
+      </c>
+      <c r="C67" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="68" ht="14" customHeight="1">
       <c r="A68" s="1" t="inlineStr">
         <is>
-          <t>谭松韵</t>
-        </is>
+          <t>孙子涵</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>SunZihan</t>
+        </is>
+      </c>
+      <c r="C68" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="69" ht="14" customHeight="1">
       <c r="A69" s="1" t="inlineStr">
         <is>
-          <t>唐嫣</t>
-        </is>
+          <t>谭松韵</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>TanSongyun</t>
+        </is>
+      </c>
+      <c r="C69" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="70" ht="14" customHeight="1">
       <c r="A70" s="1" t="inlineStr">
         <is>
-          <t>唐艺昕</t>
-        </is>
+          <t>唐嫣</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>TangYan</t>
+        </is>
+      </c>
+      <c r="C70" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="71" ht="14" customHeight="1">
       <c r="A71" s="1" t="inlineStr">
         <is>
-          <t>田馥甄</t>
-        </is>
+          <t>唐艺昕</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>TangYixin</t>
+        </is>
+      </c>
+      <c r="C71" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="72" ht="14" customHeight="1">
       <c r="A72" s="1" t="inlineStr">
         <is>
-          <t>佟丽娅</t>
-        </is>
+          <t>田馥甄</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>TianFuzhen</t>
+        </is>
+      </c>
+      <c r="C72" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="73" ht="14" customHeight="1">
       <c r="A73" s="1" t="inlineStr">
         <is>
-          <t>童瑶</t>
-        </is>
+          <t>佟丽娅</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>TongLiya</t>
+        </is>
+      </c>
+      <c r="C73" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="74" ht="14" customHeight="1">
       <c r="A74" s="1" t="inlineStr">
         <is>
-          <t>王菲</t>
-        </is>
+          <t>童瑶</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>TongYao</t>
+        </is>
+      </c>
+      <c r="C74" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="75" ht="14" customHeight="1">
       <c r="A75" s="1" t="inlineStr">
         <is>
-          <t>王丽坤</t>
-        </is>
+          <t>王菲</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>WangFei</t>
+        </is>
+      </c>
+      <c r="C75" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="76" ht="14" customHeight="1">
       <c r="A76" s="1" t="inlineStr">
         <is>
-          <t>王子文</t>
-        </is>
+          <t>王丽坤</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>WangLikun</t>
+        </is>
+      </c>
+      <c r="C76" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="77" ht="14" customHeight="1">
       <c r="A77" s="1" t="inlineStr">
         <is>
-          <t>吴倩</t>
-        </is>
+          <t>王子文</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>WangZiwen</t>
+        </is>
+      </c>
+      <c r="C77" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="78" ht="14" customHeight="1">
       <c r="A78" s="1" t="inlineStr">
         <is>
-          <t>吴昕</t>
-        </is>
+          <t>吴倩</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>WuQian</t>
+        </is>
+      </c>
+      <c r="C78" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="79" ht="14" customHeight="1">
       <c r="A79" s="1" t="inlineStr">
         <is>
-          <t>吴映洁</t>
-        </is>
+          <t>吴昕</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>WuXin</t>
+        </is>
+      </c>
+      <c r="C79" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="80" ht="14" customHeight="1">
       <c r="A80" s="1" t="inlineStr">
         <is>
-          <t>谢娜</t>
-        </is>
+          <t>吴映洁</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>WuYingji</t>
+        </is>
+      </c>
+      <c r="C80" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="81" ht="14" customHeight="1">
       <c r="A81" s="1" t="inlineStr">
         <is>
-          <t>辛芷蕾</t>
-        </is>
+          <t>谢娜</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>XieNuo</t>
+        </is>
+      </c>
+      <c r="C81" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="82" ht="14" customHeight="1">
       <c r="A82" s="1" t="inlineStr">
         <is>
-          <t>熊梓淇</t>
-        </is>
+          <t>辛芷蕾</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>XinZhilei</t>
+        </is>
+      </c>
+      <c r="C82" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="83" ht="14" customHeight="1">
       <c r="A83" s="1" t="inlineStr">
         <is>
-          <t>徐璐</t>
-        </is>
+          <t>熊梓淇</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>XiongZiqi</t>
+        </is>
+      </c>
+      <c r="C83" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="84" ht="14" customHeight="1">
       <c r="A84" s="1" t="inlineStr">
         <is>
-          <t>闫妮</t>
-        </is>
+          <t>徐璐</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>XuLu</t>
+        </is>
+      </c>
+      <c r="C84" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="85" ht="14" customHeight="1">
       <c r="A85" s="1" t="inlineStr">
         <is>
-          <t>杨丞琳</t>
-        </is>
+          <t>闫妮</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>YanNi</t>
+        </is>
+      </c>
+      <c r="C85" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="86" ht="14" customHeight="1">
       <c r="A86" s="1" t="inlineStr">
         <is>
-          <t>杨幂</t>
-        </is>
+          <t>杨丞琳</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>YangChenglin</t>
+        </is>
+      </c>
+      <c r="C86" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="87" ht="14" customHeight="1">
       <c r="A87" s="1" t="inlineStr">
         <is>
-          <t>杨蓉</t>
-        </is>
+          <t>杨幂</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>YangMi</t>
+        </is>
+      </c>
+      <c r="C87" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="88" ht="14" customHeight="1">
       <c r="A88" s="2" t="inlineStr">
         <is>
-          <t>杨颖</t>
-        </is>
-      </c>
-      <c r="B88" s="3" t="n"/>
+          <t>杨蓉</t>
+        </is>
+      </c>
+      <c r="B88" s="3" t="inlineStr">
+        <is>
+          <t>YangRong</t>
+        </is>
+      </c>
+      <c r="C88" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="89" ht="14" customHeight="1">
       <c r="A89" s="2" t="inlineStr">
         <is>
-          <t>杨紫</t>
-        </is>
-      </c>
-      <c r="B89" s="3" t="n"/>
-      <c r="C89" s="3" t="n"/>
+          <t>杨颖</t>
+        </is>
+      </c>
+      <c r="B89" s="3" t="inlineStr">
+        <is>
+          <t>YangYing</t>
+        </is>
+      </c>
+      <c r="C89" s="3" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="90" ht="14" customHeight="1">
       <c r="A90" s="2" t="inlineStr">
         <is>
-          <t>姚笛</t>
-        </is>
-      </c>
-      <c r="B90" s="3" t="n"/>
-      <c r="C90" s="3" t="n"/>
+          <t>杨紫</t>
+        </is>
+      </c>
+      <c r="B90" s="3" t="inlineStr">
+        <is>
+          <t>YangZi</t>
+        </is>
+      </c>
+      <c r="C90" s="3" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="91" ht="14" customHeight="1">
       <c r="A91" s="2" t="inlineStr">
         <is>
-          <t>应采儿</t>
-        </is>
-      </c>
-      <c r="B91" s="3" t="n"/>
-      <c r="C91" s="3" t="n"/>
+          <t>姚笛</t>
+        </is>
+      </c>
+      <c r="B91" s="3" t="inlineStr">
+        <is>
+          <t>YaoDi</t>
+        </is>
+      </c>
+      <c r="C91" s="3" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="92" ht="14" customHeight="1">
       <c r="A92" s="2" t="inlineStr">
         <is>
-          <t>郁可唯</t>
-        </is>
-      </c>
-      <c r="B92" s="3" t="n"/>
-      <c r="C92" s="3" t="n"/>
+          <t>应采儿</t>
+        </is>
+      </c>
+      <c r="B92" s="3" t="inlineStr">
+        <is>
+          <t>YingCaier</t>
+        </is>
+      </c>
+      <c r="C92" s="3" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="93" ht="14" customHeight="1">
       <c r="A93" s="2" t="inlineStr">
         <is>
-          <t>袁立</t>
-        </is>
-      </c>
-      <c r="B93" s="3" t="n"/>
-      <c r="C93" s="3" t="n"/>
+          <t>郁可唯</t>
+        </is>
+      </c>
+      <c r="B93" s="3" t="inlineStr">
+        <is>
+          <t>YuKewei</t>
+        </is>
+      </c>
+      <c r="C93" s="3" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="94" ht="14" customHeight="1">
       <c r="A94" s="2" t="inlineStr">
         <is>
-          <t>张柏芝</t>
-        </is>
-      </c>
-      <c r="B94" s="3" t="n"/>
-      <c r="C94" s="3" t="n"/>
+          <t>袁立</t>
+        </is>
+      </c>
+      <c r="B94" s="3" t="inlineStr">
+        <is>
+          <t>YuanLi</t>
+        </is>
+      </c>
+      <c r="C94" s="3" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="95" ht="14" customHeight="1">
       <c r="A95" s="2" t="inlineStr">
         <is>
-          <t>张碧晨</t>
-        </is>
-      </c>
-      <c r="B95" s="3" t="n"/>
-      <c r="C95" s="3" t="n"/>
+          <t>张柏芝</t>
+        </is>
+      </c>
+      <c r="B95" s="3" t="inlineStr">
+        <is>
+          <t>ZhangBaizhi</t>
+        </is>
+      </c>
+      <c r="C95" s="3" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="96" ht="14" customHeight="1">
       <c r="A96" s="2" t="inlineStr">
         <is>
-          <t>张惠妹</t>
-        </is>
-      </c>
-      <c r="B96" s="3" t="n"/>
-      <c r="C96" s="3" t="n"/>
+          <t>张碧晨</t>
+        </is>
+      </c>
+      <c r="B96" s="3" t="inlineStr">
+        <is>
+          <t>ZhangBichen</t>
+        </is>
+      </c>
+      <c r="C96" s="3" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="97" ht="14" customHeight="1">
       <c r="A97" s="2" t="inlineStr">
         <is>
-          <t>张静初</t>
-        </is>
-      </c>
-      <c r="B97" s="3" t="n"/>
-      <c r="C97" s="3" t="n"/>
+          <t>张惠妹</t>
+        </is>
+      </c>
+      <c r="B97" s="3" t="inlineStr">
+        <is>
+          <t>ZhangHuimei</t>
+        </is>
+      </c>
+      <c r="C97" s="3" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="98" ht="14" customHeight="1">
       <c r="A98" s="2" t="inlineStr">
         <is>
-          <t>张靓颖</t>
-        </is>
-      </c>
-      <c r="B98" s="3" t="n"/>
-      <c r="C98" s="3" t="n"/>
+          <t>张静初</t>
+        </is>
+      </c>
+      <c r="B98" s="3" t="inlineStr">
+        <is>
+          <t>ZhangJingchu</t>
+        </is>
+      </c>
+      <c r="C98" s="3" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="99" ht="14" customHeight="1">
       <c r="A99" s="2" t="inlineStr">
         <is>
-          <t>张曼玉</t>
-        </is>
-      </c>
-      <c r="B99" s="3" t="n"/>
-      <c r="C99" s="3" t="n"/>
+          <t>张靓颖</t>
+        </is>
+      </c>
+      <c r="B99" s="3" t="inlineStr">
+        <is>
+          <t>ZhangLiangying</t>
+        </is>
+      </c>
+      <c r="C99" s="3" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="100" ht="14" customHeight="1">
       <c r="A100" s="2" t="inlineStr">
         <is>
-          <t>张韶涵</t>
-        </is>
-      </c>
-      <c r="B100" s="3" t="n"/>
-      <c r="C100" s="3" t="n"/>
+          <t>张曼玉</t>
+        </is>
+      </c>
+      <c r="B100" s="3" t="inlineStr">
+        <is>
+          <t>ZhangManyu</t>
+        </is>
+      </c>
+      <c r="C100" s="3" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="101" ht="14" customHeight="1">
       <c r="A101" s="2" t="inlineStr">
         <is>
-          <t>张天爱</t>
-        </is>
-      </c>
-      <c r="B101" s="3" t="n"/>
-      <c r="C101" s="3" t="n"/>
+          <t>张韶涵</t>
+        </is>
+      </c>
+      <c r="B101" s="3" t="inlineStr">
+        <is>
+          <t>ZhangShaohan</t>
+        </is>
+      </c>
+      <c r="C101" s="3" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="102" ht="14" customHeight="1">
       <c r="A102" s="2" t="inlineStr">
         <is>
-          <t>张歆艺</t>
-        </is>
-      </c>
-      <c r="B102" s="3" t="n"/>
-      <c r="C102" s="3" t="n"/>
+          <t>张天爱</t>
+        </is>
+      </c>
+      <c r="B102" s="3" t="inlineStr">
+        <is>
+          <t>ZhangTianai</t>
+        </is>
+      </c>
+      <c r="C102" s="3" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="103" ht="14" customHeight="1">
       <c r="A103" s="2" t="inlineStr">
         <is>
-          <t>张馨予</t>
-        </is>
-      </c>
-      <c r="B103" s="3" t="n"/>
-      <c r="C103" s="3" t="n"/>
+          <t>张歆艺</t>
+        </is>
+      </c>
+      <c r="B103" s="3" t="inlineStr">
+        <is>
+          <t>ZhangXinyi</t>
+        </is>
+      </c>
+      <c r="C103" s="3" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="104" ht="14" customHeight="1">
       <c r="A104" s="2" t="inlineStr">
         <is>
-          <t>赵今麦</t>
-        </is>
-      </c>
-      <c r="B104" s="3" t="n"/>
-      <c r="C104" s="3" t="n"/>
+          <t>张馨予</t>
+        </is>
+      </c>
+      <c r="B104" s="3" t="inlineStr">
+        <is>
+          <t>ZhangXinyu</t>
+        </is>
+      </c>
+      <c r="C104" s="3" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="105" ht="14" customHeight="1">
       <c r="A105" s="2" t="inlineStr">
         <is>
-          <t>赵丽颖</t>
-        </is>
-      </c>
-      <c r="B105" s="3" t="n"/>
-      <c r="C105" s="3" t="n"/>
+          <t>赵今麦</t>
+        </is>
+      </c>
+      <c r="B105" s="3" t="inlineStr">
+        <is>
+          <t>ZhaoJinmai</t>
+        </is>
+      </c>
+      <c r="C105" s="3" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="106" ht="14" customHeight="1">
       <c r="A106" s="2" t="inlineStr">
         <is>
-          <t>赵薇</t>
-        </is>
-      </c>
-      <c r="B106" s="3" t="n"/>
-      <c r="C106" s="3" t="n"/>
+          <t>赵丽颖</t>
+        </is>
+      </c>
+      <c r="B106" s="3" t="inlineStr">
+        <is>
+          <t>ZhaoLiying</t>
+        </is>
+      </c>
+      <c r="C106" s="3" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="107" ht="14" customHeight="1">
       <c r="A107" s="2" t="inlineStr">
         <is>
-          <t>郑合惠子</t>
-        </is>
-      </c>
-      <c r="B107" s="3" t="n"/>
-      <c r="C107" s="3" t="n"/>
+          <t>赵薇</t>
+        </is>
+      </c>
+      <c r="B107" s="3" t="inlineStr">
+        <is>
+          <t>ZhaoWei</t>
+        </is>
+      </c>
+      <c r="C107" s="3" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="108" ht="14" customHeight="1">
       <c r="A108" s="2" t="inlineStr">
         <is>
-          <t>郑爽</t>
-        </is>
-      </c>
-      <c r="B108" s="3" t="n"/>
-      <c r="C108" s="3" t="n"/>
+          <t>郑合惠子</t>
+        </is>
+      </c>
+      <c r="B108" s="3" t="inlineStr">
+        <is>
+          <t>ZhengHehuizi</t>
+        </is>
+      </c>
+      <c r="C108" s="3" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="109" ht="14" customHeight="1">
       <c r="A109" s="2" t="inlineStr">
         <is>
-          <t>周笔畅</t>
-        </is>
-      </c>
-      <c r="B109" s="3" t="n"/>
-      <c r="C109" s="3" t="n"/>
+          <t>郑爽</t>
+        </is>
+      </c>
+      <c r="B109" s="3" t="inlineStr">
+        <is>
+          <t>ZhengShuang</t>
+        </is>
+      </c>
+      <c r="C109" s="3" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="110" ht="14" customHeight="1">
       <c r="A110" s="2" t="inlineStr">
         <is>
-          <t>周冬雨</t>
-        </is>
-      </c>
-      <c r="B110" s="3" t="n"/>
-      <c r="C110" s="3" t="n"/>
+          <t>周笔畅</t>
+        </is>
+      </c>
+      <c r="B110" s="3" t="inlineStr">
+        <is>
+          <t>ZhouBichang</t>
+        </is>
+      </c>
+      <c r="C110" s="3" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="111" ht="14" customHeight="1">
       <c r="A111" s="2" t="inlineStr">
         <is>
-          <t>庄达菲</t>
-        </is>
-      </c>
-      <c r="B111" s="3" t="n"/>
-      <c r="C111" s="3" t="n"/>
+          <t>周冬雨</t>
+        </is>
+      </c>
+      <c r="B111" s="3" t="inlineStr">
+        <is>
+          <t>ZhouDongyu</t>
+        </is>
+      </c>
+      <c r="C111" s="3" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="112" ht="14" customHeight="1">
       <c r="A112" s="2" t="inlineStr">
         <is>
+          <t>庄达菲</t>
+        </is>
+      </c>
+      <c r="B112" s="3" t="inlineStr">
+        <is>
+          <t>ZhuangDafei</t>
+        </is>
+      </c>
+      <c r="C112" s="3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" ht="14" customHeight="1">
+      <c r="A113" s="1" t="inlineStr">
+        <is>
           <t>庄心妍</t>
         </is>
       </c>
-      <c r="B112" s="3" t="n"/>
-      <c r="C112" s="3" t="n"/>
+      <c r="B113" s="1" t="inlineStr">
+        <is>
+          <t>ZhuangXinyan</t>
+        </is>
+      </c>
+      <c r="C113" t="n">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
